--- a/data/pca/factorExposure/factorExposure_2016-05-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.008813481572729232</v>
+        <v>0.0121919684003346</v>
       </c>
       <c r="C2">
-        <v>-0.05603058888770679</v>
+        <v>0.03972077417402321</v>
       </c>
       <c r="D2">
-        <v>-0.04005219689941189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05419221966786266</v>
+      </c>
+      <c r="E2">
+        <v>-0.08771248089204577</v>
+      </c>
+      <c r="F2">
+        <v>-0.08213573869686283</v>
+      </c>
+      <c r="G2">
+        <v>-0.03289099792763195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04126876034252139</v>
+        <v>0.02595243985635679</v>
       </c>
       <c r="C3">
-        <v>-0.118957696583218</v>
+        <v>0.06669500064633346</v>
       </c>
       <c r="D3">
-        <v>-0.09507117598169523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07653980483931344</v>
+      </c>
+      <c r="E3">
+        <v>-0.06883504734076293</v>
+      </c>
+      <c r="F3">
+        <v>0.02911172258184785</v>
+      </c>
+      <c r="G3">
+        <v>-0.05237352166573421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0606012986493183</v>
+        <v>0.05879106197471529</v>
       </c>
       <c r="C4">
-        <v>-0.06100249991459086</v>
+        <v>0.06360981529590484</v>
       </c>
       <c r="D4">
-        <v>-0.02357669952583083</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.04785817993998264</v>
+      </c>
+      <c r="E4">
+        <v>-0.0876302110184274</v>
+      </c>
+      <c r="F4">
+        <v>-0.04471554772399752</v>
+      </c>
+      <c r="G4">
+        <v>-0.09721434843675233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0388859743985886</v>
+        <v>0.03452442754294696</v>
       </c>
       <c r="C6">
-        <v>-0.03718914844725862</v>
+        <v>0.02781286074531069</v>
       </c>
       <c r="D6">
-        <v>-0.02346059115729441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05469673507304916</v>
+      </c>
+      <c r="E6">
+        <v>-0.08731762484995896</v>
+      </c>
+      <c r="F6">
+        <v>-0.03058593142393858</v>
+      </c>
+      <c r="G6">
+        <v>-0.07075014537182799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02415466178186697</v>
+        <v>0.01934265167962055</v>
       </c>
       <c r="C7">
-        <v>-0.04354908177721675</v>
+        <v>0.03716221289940249</v>
       </c>
       <c r="D7">
-        <v>0.008459102834554534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03319102187978031</v>
+      </c>
+      <c r="E7">
+        <v>-0.06488198077509713</v>
+      </c>
+      <c r="F7">
+        <v>-0.07296902916602274</v>
+      </c>
+      <c r="G7">
+        <v>-0.09661343129523434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005560732117321931</v>
+        <v>0.003822991205592607</v>
       </c>
       <c r="C8">
-        <v>-0.03689623648881125</v>
+        <v>0.0326464817970719</v>
       </c>
       <c r="D8">
-        <v>-0.02587008132385156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02924321080640029</v>
+      </c>
+      <c r="E8">
+        <v>-0.05947960090109986</v>
+      </c>
+      <c r="F8">
+        <v>-0.02196196328839567</v>
+      </c>
+      <c r="G8">
+        <v>-0.04295707601210352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03446210984857897</v>
+        <v>0.03789514083014358</v>
       </c>
       <c r="C9">
-        <v>-0.04775022766752918</v>
+        <v>0.05080215874905134</v>
       </c>
       <c r="D9">
-        <v>-0.009256453479018049</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03375352908637724</v>
+      </c>
+      <c r="E9">
+        <v>-0.07256150598912468</v>
+      </c>
+      <c r="F9">
+        <v>-0.05618875368281603</v>
+      </c>
+      <c r="G9">
+        <v>-0.08880475997589087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07524023628315958</v>
+        <v>0.1007776049829292</v>
       </c>
       <c r="C10">
-        <v>0.1875549358374529</v>
+        <v>-0.1968926402443262</v>
       </c>
       <c r="D10">
-        <v>0.008832200835034738</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01475909260174938</v>
+      </c>
+      <c r="E10">
+        <v>-0.03733294927219363</v>
+      </c>
+      <c r="F10">
+        <v>-0.0183994174054572</v>
+      </c>
+      <c r="G10">
+        <v>-0.03215940069659092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04190603826822363</v>
+        <v>0.03729429451980645</v>
       </c>
       <c r="C11">
-        <v>-0.05076525327779342</v>
+        <v>0.04750298716721629</v>
       </c>
       <c r="D11">
-        <v>-0.0105132870937477</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0293893520095247</v>
+      </c>
+      <c r="E11">
+        <v>-0.02656799295600928</v>
+      </c>
+      <c r="F11">
+        <v>-0.04321775066111356</v>
+      </c>
+      <c r="G11">
+        <v>-0.07084130531221093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04385204543247797</v>
+        <v>0.03907744813605855</v>
       </c>
       <c r="C12">
-        <v>-0.04708683108921746</v>
+        <v>0.04546010335976063</v>
       </c>
       <c r="D12">
-        <v>-0.0003224456112160514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02369861669704651</v>
+      </c>
+      <c r="E12">
+        <v>-0.03453416867909648</v>
+      </c>
+      <c r="F12">
+        <v>-0.04570218778413215</v>
+      </c>
+      <c r="G12">
+        <v>-0.06767491626177558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01307703957025272</v>
+        <v>0.01109343189083432</v>
       </c>
       <c r="C13">
-        <v>-0.05425286442528639</v>
+        <v>0.04202788362926529</v>
       </c>
       <c r="D13">
-        <v>-0.005359228051114527</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03896666725483583</v>
+      </c>
+      <c r="E13">
+        <v>-0.09953304092615062</v>
+      </c>
+      <c r="F13">
+        <v>-0.0624750469759016</v>
+      </c>
+      <c r="G13">
+        <v>-0.09808435019640122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.00802200538322494</v>
+        <v>0.004598427205702301</v>
       </c>
       <c r="C14">
-        <v>-0.04229306191561577</v>
+        <v>0.03327443575668997</v>
       </c>
       <c r="D14">
-        <v>0.0128404126931118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02063257366562741</v>
+      </c>
+      <c r="E14">
+        <v>-0.04947491316411574</v>
+      </c>
+      <c r="F14">
+        <v>-0.07828655428807546</v>
+      </c>
+      <c r="G14">
+        <v>-0.08104548519641465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0001189828174005622</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005406761206829425</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007202977190206678</v>
+      </c>
+      <c r="E15">
+        <v>-0.004836531738784735</v>
+      </c>
+      <c r="F15">
+        <v>-0.005962639924350066</v>
+      </c>
+      <c r="G15">
+        <v>-0.00707662093786766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03865056083704162</v>
+        <v>0.03469366689296436</v>
       </c>
       <c r="C16">
-        <v>-0.04951581476580574</v>
+        <v>0.04489419992484925</v>
       </c>
       <c r="D16">
-        <v>-0.003275320497179948</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02277140677279344</v>
+      </c>
+      <c r="E16">
+        <v>-0.04095813414349907</v>
+      </c>
+      <c r="F16">
+        <v>-0.05276422721879421</v>
+      </c>
+      <c r="G16">
+        <v>-0.05808251280810799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02422391824722825</v>
+        <v>0.01790336573410499</v>
       </c>
       <c r="C19">
-        <v>-0.06034663733672716</v>
+        <v>0.04373485480883303</v>
       </c>
       <c r="D19">
-        <v>-0.0861158374260821</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08757595128649211</v>
+      </c>
+      <c r="E19">
+        <v>-0.1125372374539668</v>
+      </c>
+      <c r="F19">
+        <v>-0.06695560708436214</v>
+      </c>
+      <c r="G19">
+        <v>-0.04994988047323445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01683803171674365</v>
+        <v>0.01368621857457124</v>
       </c>
       <c r="C20">
-        <v>-0.04778993391930156</v>
+        <v>0.03893583541937987</v>
       </c>
       <c r="D20">
-        <v>-0.005403652554828936</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.02849436098204677</v>
+      </c>
+      <c r="E20">
+        <v>-0.07716590954936926</v>
+      </c>
+      <c r="F20">
+        <v>-0.05292616022778557</v>
+      </c>
+      <c r="G20">
+        <v>-0.06990964901636165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01138631087239969</v>
+        <v>0.01007348982982645</v>
       </c>
       <c r="C21">
-        <v>-0.0510155055122889</v>
+        <v>0.04098089224782683</v>
       </c>
       <c r="D21">
-        <v>-0.03103271949662412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05249855375286864</v>
+      </c>
+      <c r="E21">
+        <v>-0.1198700539957185</v>
+      </c>
+      <c r="F21">
+        <v>-0.08845043742359245</v>
+      </c>
+      <c r="G21">
+        <v>-0.1074689847512574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001821238473156844</v>
+        <v>0.002907025427185315</v>
       </c>
       <c r="C22">
-        <v>-0.001279419552121772</v>
+        <v>0.02684268444046505</v>
       </c>
       <c r="D22">
-        <v>-0.004300133809850193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04150821377617066</v>
+      </c>
+      <c r="E22">
+        <v>-0.04376303587928618</v>
+      </c>
+      <c r="F22">
+        <v>0.01025632863695348</v>
+      </c>
+      <c r="G22">
+        <v>-0.05795761279977838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001827003258377619</v>
+        <v>0.002992072822467814</v>
       </c>
       <c r="C23">
-        <v>-0.001280009431957204</v>
+        <v>0.02698350937397625</v>
       </c>
       <c r="D23">
-        <v>-0.004304434278120959</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0410617165722167</v>
+      </c>
+      <c r="E23">
+        <v>-0.04401312652045847</v>
+      </c>
+      <c r="F23">
+        <v>0.01054742588364354</v>
+      </c>
+      <c r="G23">
+        <v>-0.05794397715124215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03562907722275722</v>
+        <v>0.0349752383533853</v>
       </c>
       <c r="C24">
-        <v>-0.05017165924892944</v>
+        <v>0.05212719104987259</v>
       </c>
       <c r="D24">
-        <v>-0.005831474892660346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02247639486092541</v>
+      </c>
+      <c r="E24">
+        <v>-0.04228829678760212</v>
+      </c>
+      <c r="F24">
+        <v>-0.05408223108441572</v>
+      </c>
+      <c r="G24">
+        <v>-0.07103351378220828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04881247368197178</v>
+        <v>0.04410817720504813</v>
       </c>
       <c r="C25">
-        <v>-0.06069589041099527</v>
+        <v>0.05594514786404192</v>
       </c>
       <c r="D25">
-        <v>0.006179465006527424</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02085337318456988</v>
+      </c>
+      <c r="E25">
+        <v>-0.03230619758103812</v>
+      </c>
+      <c r="F25">
+        <v>-0.04553978708472312</v>
+      </c>
+      <c r="G25">
+        <v>-0.08165867567130057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0167302943606366</v>
+        <v>0.01512274501509392</v>
       </c>
       <c r="C26">
-        <v>-0.01728078006020986</v>
+        <v>0.01707450556498127</v>
       </c>
       <c r="D26">
-        <v>0.002005842941242457</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02185727930512179</v>
+      </c>
+      <c r="E26">
+        <v>-0.05225388473097756</v>
+      </c>
+      <c r="F26">
+        <v>-0.06041808926803966</v>
+      </c>
+      <c r="G26">
+        <v>-0.05096192783615829</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09100137090746083</v>
+        <v>0.1368931508659558</v>
       </c>
       <c r="C28">
-        <v>0.2463342709566343</v>
+        <v>-0.2533018095093069</v>
       </c>
       <c r="D28">
-        <v>0.008819478878532315</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.03045901378165328</v>
+      </c>
+      <c r="E28">
+        <v>-0.05587989657606077</v>
+      </c>
+      <c r="F28">
+        <v>-0.02455698235809317</v>
+      </c>
+      <c r="G28">
+        <v>-0.04912990306837339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007191655442072573</v>
+        <v>0.005412301542110021</v>
       </c>
       <c r="C29">
-        <v>-0.03410602618050591</v>
+        <v>0.02969194038202496</v>
       </c>
       <c r="D29">
-        <v>0.01830255684212292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01370611435161966</v>
+      </c>
+      <c r="E29">
+        <v>-0.04777500953333663</v>
+      </c>
+      <c r="F29">
+        <v>-0.06643699798041862</v>
+      </c>
+      <c r="G29">
+        <v>-0.08531541612564103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0448173653100967</v>
+        <v>0.04146216595059185</v>
       </c>
       <c r="C30">
-        <v>-0.0531735644870018</v>
+        <v>0.05614317299883002</v>
       </c>
       <c r="D30">
-        <v>-0.066480456307851</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09503940614720567</v>
+      </c>
+      <c r="E30">
+        <v>-0.07994286377163357</v>
+      </c>
+      <c r="F30">
+        <v>-0.07725858792066716</v>
+      </c>
+      <c r="G30">
+        <v>-0.07240887997954196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05859118795308476</v>
+        <v>0.05736203284685784</v>
       </c>
       <c r="C31">
-        <v>-0.04533103724526657</v>
+        <v>0.0611542131471844</v>
       </c>
       <c r="D31">
-        <v>0.04162251587318645</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01969944760904246</v>
+      </c>
+      <c r="E31">
+        <v>-0.06645500438992004</v>
+      </c>
+      <c r="F31">
+        <v>-0.02779360402624066</v>
+      </c>
+      <c r="G31">
+        <v>-0.08761178208251078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001293884849441215</v>
+        <v>0.004611457507527791</v>
       </c>
       <c r="C32">
-        <v>-0.04593593826620621</v>
+        <v>0.03592696100691165</v>
       </c>
       <c r="D32">
-        <v>-0.04878604585257355</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05306570399816297</v>
+      </c>
+      <c r="E32">
+        <v>-0.05571098187264246</v>
+      </c>
+      <c r="F32">
+        <v>-0.06824610484959667</v>
+      </c>
+      <c r="G32">
+        <v>-0.06565795833110057</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03113340684513195</v>
+        <v>0.02648191814575016</v>
       </c>
       <c r="C33">
-        <v>-0.05956979510807472</v>
+        <v>0.05285423327565805</v>
       </c>
       <c r="D33">
-        <v>-0.03275890163447046</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06494122986561238</v>
+      </c>
+      <c r="E33">
+        <v>-0.09103375210016565</v>
+      </c>
+      <c r="F33">
+        <v>-0.07440178579013897</v>
+      </c>
+      <c r="G33">
+        <v>-0.1012603635672571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04632482518409931</v>
+        <v>0.04161966875367812</v>
       </c>
       <c r="C34">
-        <v>-0.06527390272675271</v>
+        <v>0.06326227634876944</v>
       </c>
       <c r="D34">
-        <v>-0.01429763949771639</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03666986063123653</v>
+      </c>
+      <c r="E34">
+        <v>-0.01574427708601574</v>
+      </c>
+      <c r="F34">
+        <v>-0.05628385682371746</v>
+      </c>
+      <c r="G34">
+        <v>-0.0721967948770779</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01645673177286745</v>
+        <v>0.01435057025605979</v>
       </c>
       <c r="C36">
-        <v>-0.01702411518837405</v>
+        <v>0.01326367103531217</v>
       </c>
       <c r="D36">
-        <v>0.006709477308139843</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01999640925311201</v>
+      </c>
+      <c r="E36">
+        <v>-0.05927625320057579</v>
+      </c>
+      <c r="F36">
+        <v>-0.05136404653241755</v>
+      </c>
+      <c r="G36">
+        <v>-0.06937900390259147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02927257216958722</v>
+        <v>0.02319702535566588</v>
       </c>
       <c r="C38">
-        <v>-0.03081152560979809</v>
+        <v>0.02348395845218985</v>
       </c>
       <c r="D38">
-        <v>0.0180889485743106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01809239764194563</v>
+      </c>
+      <c r="E38">
+        <v>-0.05078866151295076</v>
+      </c>
+      <c r="F38">
+        <v>-0.04508893093271301</v>
+      </c>
+      <c r="G38">
+        <v>-0.05026268735456342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04652515100443452</v>
+        <v>0.04060854739825619</v>
       </c>
       <c r="C39">
-        <v>-0.06335665421828536</v>
+        <v>0.06289977734938471</v>
       </c>
       <c r="D39">
-        <v>-0.01429900195836935</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04688573891932414</v>
+      </c>
+      <c r="E39">
+        <v>-0.0492943265677706</v>
+      </c>
+      <c r="F39">
+        <v>-0.07681992866439505</v>
+      </c>
+      <c r="G39">
+        <v>-0.06643886726453371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01119384504230043</v>
+        <v>0.0133920742265586</v>
       </c>
       <c r="C40">
-        <v>-0.05010449796624795</v>
+        <v>0.03710637913107347</v>
       </c>
       <c r="D40">
-        <v>-0.01772609689893252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02516917031401131</v>
+      </c>
+      <c r="E40">
+        <v>-0.08449638583871365</v>
+      </c>
+      <c r="F40">
+        <v>-0.03757415348065244</v>
+      </c>
+      <c r="G40">
+        <v>-0.1086153723113363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02185719095716109</v>
+        <v>0.01874038336966896</v>
       </c>
       <c r="C41">
-        <v>-0.01477966546533521</v>
+        <v>0.01069356396464529</v>
       </c>
       <c r="D41">
-        <v>0.002044848289301875</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01258380657469518</v>
+      </c>
+      <c r="E41">
+        <v>-0.06079716992909427</v>
+      </c>
+      <c r="F41">
+        <v>-0.04660095367415396</v>
+      </c>
+      <c r="G41">
+        <v>-0.05551997505672411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04112471162185867</v>
+        <v>0.02982526952350217</v>
       </c>
       <c r="C43">
-        <v>-0.03277791800300759</v>
+        <v>0.02412773383637811</v>
       </c>
       <c r="D43">
-        <v>-0.02489415450081042</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04137084775571331</v>
+      </c>
+      <c r="E43">
+        <v>-0.07778487134416595</v>
+      </c>
+      <c r="F43">
+        <v>-0.04175552216737005</v>
+      </c>
+      <c r="G43">
+        <v>-0.08508159985465757</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0134870632203703</v>
+        <v>0.01497914893822771</v>
       </c>
       <c r="C44">
-        <v>-0.06628752771567128</v>
+        <v>0.04742302778596335</v>
       </c>
       <c r="D44">
-        <v>-0.006060053368695196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03017156009439959</v>
+      </c>
+      <c r="E44">
+        <v>-0.08579431382363076</v>
+      </c>
+      <c r="F44">
+        <v>-0.06005303425663865</v>
+      </c>
+      <c r="G44">
+        <v>-0.05182892207006681</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.008952615649889141</v>
+        <v>0.009344439915710495</v>
       </c>
       <c r="C46">
-        <v>-0.02974449513277569</v>
+        <v>0.02987331556601122</v>
       </c>
       <c r="D46">
-        <v>0.02011451994375174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.007827807714668155</v>
+      </c>
+      <c r="E46">
+        <v>-0.0575942005924651</v>
+      </c>
+      <c r="F46">
+        <v>-0.07944850839766129</v>
+      </c>
+      <c r="G46">
+        <v>-0.08617598701781684</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08615219833564403</v>
+        <v>0.08941708707344946</v>
       </c>
       <c r="C47">
-        <v>-0.07182307250139797</v>
+        <v>0.08123802226073359</v>
       </c>
       <c r="D47">
-        <v>0.03991097439296384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02730081041230046</v>
+      </c>
+      <c r="E47">
+        <v>-0.06799037533688738</v>
+      </c>
+      <c r="F47">
+        <v>-0.02399250360038704</v>
+      </c>
+      <c r="G47">
+        <v>-0.0756494380662595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01893946495827321</v>
+        <v>0.01723011311016226</v>
       </c>
       <c r="C48">
-        <v>-0.01427443393991363</v>
+        <v>0.01558925823194713</v>
       </c>
       <c r="D48">
-        <v>0.02223984705036926</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.007083154610536657</v>
+      </c>
+      <c r="E48">
+        <v>-0.07032254421196604</v>
+      </c>
+      <c r="F48">
+        <v>-0.06550207583630728</v>
+      </c>
+      <c r="G48">
+        <v>-0.07846356386148357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0816054234743963</v>
+        <v>0.07074823506563603</v>
       </c>
       <c r="C50">
-        <v>-0.08323149425171882</v>
+        <v>0.07557620420297852</v>
       </c>
       <c r="D50">
-        <v>0.04033783248630671</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01101179854890362</v>
+      </c>
+      <c r="E50">
+        <v>-0.07429214383110226</v>
+      </c>
+      <c r="F50">
+        <v>0.0007562775224078041</v>
+      </c>
+      <c r="G50">
+        <v>-0.09777707867151124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01642071858089323</v>
+        <v>0.01028756187284784</v>
       </c>
       <c r="C51">
-        <v>-0.04911018633675868</v>
+        <v>0.03172067058484568</v>
       </c>
       <c r="D51">
-        <v>-0.03395702733945153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05175541047903305</v>
+      </c>
+      <c r="E51">
+        <v>-0.05026564150675392</v>
+      </c>
+      <c r="F51">
+        <v>-0.0703313274241863</v>
+      </c>
+      <c r="G51">
+        <v>-0.06438245571848267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.0834279126360299</v>
+        <v>0.09600108985758946</v>
       </c>
       <c r="C53">
-        <v>-0.07631591107092132</v>
+        <v>0.08556408610688497</v>
       </c>
       <c r="D53">
-        <v>0.06139154386486279</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06214297152435387</v>
+      </c>
+      <c r="E53">
+        <v>-0.05932351762949287</v>
+      </c>
+      <c r="F53">
+        <v>-0.02096352723214038</v>
+      </c>
+      <c r="G53">
+        <v>-0.07305708176345617</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03377030037818613</v>
+        <v>0.02771749253991776</v>
       </c>
       <c r="C54">
-        <v>-0.03957601132216735</v>
+        <v>0.03345715423166204</v>
       </c>
       <c r="D54">
-        <v>0.006469150580361844</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02023092598666863</v>
+      </c>
+      <c r="E54">
+        <v>-0.05818527396613792</v>
+      </c>
+      <c r="F54">
+        <v>-0.07127496990505489</v>
+      </c>
+      <c r="G54">
+        <v>-0.08302233347166053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07779726335458552</v>
+        <v>0.08806838260855318</v>
       </c>
       <c r="C55">
-        <v>-0.05489916866884607</v>
+        <v>0.06797256021343523</v>
       </c>
       <c r="D55">
-        <v>0.06652271071063337</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06300002992969382</v>
+      </c>
+      <c r="E55">
+        <v>-0.03986593522423723</v>
+      </c>
+      <c r="F55">
+        <v>-0.007391993896364355</v>
+      </c>
+      <c r="G55">
+        <v>-0.0539506906227008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1486700833887629</v>
+        <v>0.1510100401905544</v>
       </c>
       <c r="C56">
-        <v>-0.08947663258449952</v>
+        <v>0.1040406550918667</v>
       </c>
       <c r="D56">
-        <v>0.05767524801603353</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05929678642172579</v>
+      </c>
+      <c r="E56">
+        <v>-0.04102907123379262</v>
+      </c>
+      <c r="F56">
+        <v>0.0140549203786271</v>
+      </c>
+      <c r="G56">
+        <v>-0.02327717171952888</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04066624223428306</v>
+        <v>0.02527341636841088</v>
       </c>
       <c r="C58">
-        <v>-0.03516995402371753</v>
+        <v>0.02739565253015778</v>
       </c>
       <c r="D58">
-        <v>-0.6319800537050541</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3699285714386439</v>
+      </c>
+      <c r="E58">
+        <v>-0.6644880128397047</v>
+      </c>
+      <c r="F58">
+        <v>0.4091869582018409</v>
+      </c>
+      <c r="G58">
+        <v>0.4282475843912685</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1300959684548649</v>
+        <v>0.1440726316416504</v>
       </c>
       <c r="C59">
-        <v>0.1986301112735368</v>
+        <v>-0.1889865032380449</v>
       </c>
       <c r="D59">
-        <v>-0.02618059149714105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02788468741000407</v>
+      </c>
+      <c r="E59">
+        <v>-0.03100848338713328</v>
+      </c>
+      <c r="F59">
+        <v>-0.03379202686135379</v>
+      </c>
+      <c r="G59">
+        <v>0.01122443971432763</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3092950310420275</v>
+        <v>0.2788890426073823</v>
       </c>
       <c r="C60">
-        <v>-0.1067184658871895</v>
+        <v>0.1074890843690163</v>
       </c>
       <c r="D60">
-        <v>-0.1844269285542723</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2701770500702753</v>
+      </c>
+      <c r="E60">
+        <v>0.2374152990369572</v>
+      </c>
+      <c r="F60">
+        <v>0.08065563148465707</v>
+      </c>
+      <c r="G60">
+        <v>-0.03204963265306446</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04446410335611325</v>
+        <v>0.04172864669177519</v>
       </c>
       <c r="C61">
-        <v>-0.06316958900234521</v>
+        <v>0.05953470804361674</v>
       </c>
       <c r="D61">
-        <v>-0.009314565904791986</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03830839244406451</v>
+      </c>
+      <c r="E61">
+        <v>-0.05155114280912292</v>
+      </c>
+      <c r="F61">
+        <v>-0.05628745524446629</v>
+      </c>
+      <c r="G61">
+        <v>-0.07962493300002377</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01677051295783097</v>
+        <v>0.01551701844350512</v>
       </c>
       <c r="C63">
-        <v>-0.03362799689211134</v>
+        <v>0.03093028905575392</v>
       </c>
       <c r="D63">
-        <v>0.02263029745267124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01258825965038868</v>
+      </c>
+      <c r="E63">
+        <v>-0.06251157797368048</v>
+      </c>
+      <c r="F63">
+        <v>-0.03712566764458634</v>
+      </c>
+      <c r="G63">
+        <v>-0.07813564116439957</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05007421603555606</v>
+        <v>0.0555885686988175</v>
       </c>
       <c r="C64">
-        <v>-0.04657483187368526</v>
+        <v>0.05678085762595994</v>
       </c>
       <c r="D64">
-        <v>0.004028225662338493</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0007223066517395499</v>
+      </c>
+      <c r="E64">
+        <v>-0.03647807438892212</v>
+      </c>
+      <c r="F64">
+        <v>-0.06010286347008589</v>
+      </c>
+      <c r="G64">
+        <v>-0.06586666790565221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08032432711839416</v>
+        <v>0.06514982821854345</v>
       </c>
       <c r="C65">
-        <v>-0.03166979421101559</v>
+        <v>0.02892623482586047</v>
       </c>
       <c r="D65">
-        <v>-0.05627954590372259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08405106158433885</v>
+      </c>
+      <c r="E65">
+        <v>-0.05586527015196445</v>
+      </c>
+      <c r="F65">
+        <v>-0.007203341075988091</v>
+      </c>
+      <c r="G65">
+        <v>-0.02453260445047961</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06212254056461265</v>
+        <v>0.05290644010175333</v>
       </c>
       <c r="C66">
-        <v>-0.08606537588885238</v>
+        <v>0.08001085509104491</v>
       </c>
       <c r="D66">
-        <v>-0.03407521665302064</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07104587893315552</v>
+      </c>
+      <c r="E66">
+        <v>-0.05833798890729901</v>
+      </c>
+      <c r="F66">
+        <v>-0.06918659030896873</v>
+      </c>
+      <c r="G66">
+        <v>-0.08266032690732426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05125312560200219</v>
+        <v>0.04476727675535499</v>
       </c>
       <c r="C67">
-        <v>-0.03123127099862781</v>
+        <v>0.02840761702417822</v>
       </c>
       <c r="D67">
-        <v>0.02516792129944164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.002942432358044445</v>
+      </c>
+      <c r="E67">
+        <v>-0.02738060086090691</v>
+      </c>
+      <c r="F67">
+        <v>-0.03224229787171851</v>
+      </c>
+      <c r="G67">
+        <v>-0.03988070484103892</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1276328489107937</v>
+        <v>0.1505776232084184</v>
       </c>
       <c r="C68">
-        <v>0.2805616680020586</v>
+        <v>-0.2445335252798076</v>
       </c>
       <c r="D68">
-        <v>0.00620349846197579</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0159894133299232</v>
+      </c>
+      <c r="E68">
+        <v>-0.03758632358098252</v>
+      </c>
+      <c r="F68">
+        <v>-0.002314370170941455</v>
+      </c>
+      <c r="G68">
+        <v>-0.03291265341548985</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0916618090337907</v>
+        <v>0.0870462590751501</v>
       </c>
       <c r="C69">
-        <v>-0.07279538423149844</v>
+        <v>0.09006756186839013</v>
       </c>
       <c r="D69">
-        <v>0.05327709046081795</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01893623915268991</v>
+      </c>
+      <c r="E69">
+        <v>-0.05558889611065446</v>
+      </c>
+      <c r="F69">
+        <v>-0.05717852479769175</v>
+      </c>
+      <c r="G69">
+        <v>-0.0811567449118078</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.116960265069123</v>
+        <v>0.1439517152530116</v>
       </c>
       <c r="C71">
-        <v>0.2554015916813856</v>
+        <v>-0.2415874137447089</v>
       </c>
       <c r="D71">
-        <v>-0.01235420263456932</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002998331077448599</v>
+      </c>
+      <c r="E71">
+        <v>-0.05811366400724492</v>
+      </c>
+      <c r="F71">
+        <v>-0.0112256064857169</v>
+      </c>
+      <c r="G71">
+        <v>-0.0591687995492057</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09386632963936786</v>
+        <v>0.1006378746200337</v>
       </c>
       <c r="C72">
-        <v>-0.05378079884980017</v>
+        <v>0.05759369464156364</v>
       </c>
       <c r="D72">
-        <v>-0.0005812526865651241</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02608304527658376</v>
+      </c>
+      <c r="E72">
+        <v>-0.02619466768669702</v>
+      </c>
+      <c r="F72">
+        <v>-0.03166365627430891</v>
+      </c>
+      <c r="G72">
+        <v>-0.07755713739390152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4025537255921561</v>
+        <v>0.3405362523537622</v>
       </c>
       <c r="C73">
-        <v>-0.04235950497464404</v>
+        <v>0.06934345236431264</v>
       </c>
       <c r="D73">
-        <v>-0.4364651146252093</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5328037514716921</v>
+      </c>
+      <c r="E73">
+        <v>0.4287385244779697</v>
+      </c>
+      <c r="F73">
+        <v>0.2264530402645289</v>
+      </c>
+      <c r="G73">
+        <v>-0.002011721673330108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1043230280492073</v>
+        <v>0.1094993104731035</v>
       </c>
       <c r="C74">
-        <v>-0.09536657377297383</v>
+        <v>0.09453696567910565</v>
       </c>
       <c r="D74">
-        <v>0.04125918340696144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04927101877821423</v>
+      </c>
+      <c r="E74">
+        <v>-0.06054895678801438</v>
+      </c>
+      <c r="F74">
+        <v>0.01906625980608085</v>
+      </c>
+      <c r="G74">
+        <v>-0.05348295131001898</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2544167289924665</v>
+        <v>0.257994444701269</v>
       </c>
       <c r="C75">
-        <v>-0.1004346545505249</v>
+        <v>0.1293289206053777</v>
       </c>
       <c r="D75">
-        <v>0.1396258667223386</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1580180697123811</v>
+      </c>
+      <c r="E75">
+        <v>-0.02842289534075385</v>
+      </c>
+      <c r="F75">
+        <v>0.05944445681095954</v>
+      </c>
+      <c r="G75">
+        <v>0.04552878905893371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1150635500987235</v>
+        <v>0.129051508914686</v>
       </c>
       <c r="C76">
-        <v>-0.08053969446364902</v>
+        <v>0.09245504256952727</v>
       </c>
       <c r="D76">
-        <v>0.07263119589547759</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.08257230840699678</v>
+      </c>
+      <c r="E76">
+        <v>-0.06672808242350646</v>
+      </c>
+      <c r="F76">
+        <v>-0.005482679141136724</v>
+      </c>
+      <c r="G76">
+        <v>-0.03697809546231821</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07747511989095082</v>
+        <v>0.06365303524083413</v>
       </c>
       <c r="C77">
-        <v>-0.05244912962209793</v>
+        <v>0.06231799431136718</v>
       </c>
       <c r="D77">
-        <v>-0.04636271380519939</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04597993958918119</v>
+      </c>
+      <c r="E77">
+        <v>-0.0994974687903612</v>
+      </c>
+      <c r="F77">
+        <v>-0.1762729489616439</v>
+      </c>
+      <c r="G77">
+        <v>0.08866144433361195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04829089177422373</v>
+        <v>0.04557225101334049</v>
       </c>
       <c r="C78">
-        <v>-0.04647549018532023</v>
+        <v>0.05591075995421062</v>
       </c>
       <c r="D78">
-        <v>-0.01914323889823704</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05488746132828152</v>
+      </c>
+      <c r="E78">
+        <v>-0.05806157965446374</v>
+      </c>
+      <c r="F78">
+        <v>-0.06085669479623875</v>
+      </c>
+      <c r="G78">
+        <v>-0.06607158348035511</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.03039355738357409</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04530438168685466</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.07948924464560986</v>
+      </c>
+      <c r="E79">
+        <v>-0.05927270285313873</v>
+      </c>
+      <c r="F79">
+        <v>0.02436286390917544</v>
+      </c>
+      <c r="G79">
+        <v>-0.03794125232574309</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03876120296581122</v>
+        <v>0.02994294001024458</v>
       </c>
       <c r="C80">
-        <v>-0.048975571372174</v>
+        <v>0.04998343101469874</v>
       </c>
       <c r="D80">
-        <v>-0.02944730924877795</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03940145859720715</v>
+      </c>
+      <c r="E80">
+        <v>-0.02000283114034435</v>
+      </c>
+      <c r="F80">
+        <v>-0.05335905849004641</v>
+      </c>
+      <c r="G80">
+        <v>-0.0001140596954617384</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1402025262890165</v>
+        <v>0.1405870162932834</v>
       </c>
       <c r="C81">
-        <v>-0.07477433649538549</v>
+        <v>0.0929059804677957</v>
       </c>
       <c r="D81">
-        <v>0.1028873268858791</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1261939121832234</v>
+      </c>
+      <c r="E81">
+        <v>-0.0655441490515019</v>
+      </c>
+      <c r="F81">
+        <v>0.03376772467176889</v>
+      </c>
+      <c r="G81">
+        <v>0.008621098830781446</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1806446853793246</v>
+        <v>0.2168037161592266</v>
       </c>
       <c r="C82">
-        <v>-0.08869520539669756</v>
+        <v>0.1529429448896859</v>
       </c>
       <c r="D82">
-        <v>0.1853024157159017</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2487559726064485</v>
+      </c>
+      <c r="E82">
+        <v>0.02969482151104598</v>
+      </c>
+      <c r="F82">
+        <v>-0.04017887587603719</v>
+      </c>
+      <c r="G82">
+        <v>-0.04650688214566449</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03870198968414797</v>
+        <v>0.02664324109577384</v>
       </c>
       <c r="C83">
-        <v>-0.03173644555533966</v>
+        <v>0.04349236713566852</v>
       </c>
       <c r="D83">
-        <v>-0.03860257849238882</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02874080555572507</v>
+      </c>
+      <c r="E83">
+        <v>-0.02792442161597757</v>
+      </c>
+      <c r="F83">
+        <v>-0.04545369754951065</v>
+      </c>
+      <c r="G83">
+        <v>-0.009758572657208062</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.000467708074793242</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0001999659384558287</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.002072025699007718</v>
+      </c>
+      <c r="E84">
+        <v>-0.002443354457723421</v>
+      </c>
+      <c r="F84">
+        <v>0.0009258586728970181</v>
+      </c>
+      <c r="G84">
+        <v>-0.002410904587149185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2211672644811487</v>
+        <v>0.2042378729019131</v>
       </c>
       <c r="C85">
-        <v>-0.09915680011178714</v>
+        <v>0.1145373771585289</v>
       </c>
       <c r="D85">
-        <v>0.1658767035465231</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1267376609909524</v>
+      </c>
+      <c r="E85">
+        <v>0.01422653227598922</v>
+      </c>
+      <c r="F85">
+        <v>0.1020110791068252</v>
+      </c>
+      <c r="G85">
+        <v>0.009372028725627632</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007337684086960472</v>
+        <v>0.01063705863762449</v>
       </c>
       <c r="C86">
-        <v>-0.02636030983390407</v>
+        <v>0.01859454199143712</v>
       </c>
       <c r="D86">
-        <v>-0.03853968768907639</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05179032261279284</v>
+      </c>
+      <c r="E86">
+        <v>-0.07982938905576982</v>
+      </c>
+      <c r="F86">
+        <v>-0.09373750731266238</v>
+      </c>
+      <c r="G86">
+        <v>-0.0795317258124565</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02419882345281679</v>
+        <v>0.02520312725545042</v>
       </c>
       <c r="C87">
-        <v>-0.005397424773790142</v>
+        <v>0.0130249526119515</v>
       </c>
       <c r="D87">
-        <v>-0.07613006373226391</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07440200774298501</v>
+      </c>
+      <c r="E87">
+        <v>-0.1275358346999456</v>
+      </c>
+      <c r="F87">
+        <v>-0.07989658716069378</v>
+      </c>
+      <c r="G87">
+        <v>-0.0223099907987289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1082132112018758</v>
+        <v>0.09331404885845371</v>
       </c>
       <c r="C88">
-        <v>-0.07185214344059189</v>
+        <v>0.06142784432281127</v>
       </c>
       <c r="D88">
-        <v>0.02658346789154268</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.005607853286563432</v>
+      </c>
+      <c r="E88">
+        <v>-0.0535008118049656</v>
+      </c>
+      <c r="F88">
+        <v>-0.06429783663754179</v>
+      </c>
+      <c r="G88">
+        <v>-0.04309193590869383</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1823107846728822</v>
+        <v>0.2185891509966232</v>
       </c>
       <c r="C89">
-        <v>0.3776304284932454</v>
+        <v>-0.381478965095415</v>
       </c>
       <c r="D89">
-        <v>0.02695994633404668</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02454055236816491</v>
+      </c>
+      <c r="E89">
+        <v>-0.07329812610335955</v>
+      </c>
+      <c r="F89">
+        <v>-0.09953157400599656</v>
+      </c>
+      <c r="G89">
+        <v>0.001991067196426811</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1765961720624603</v>
+        <v>0.1997341241949034</v>
       </c>
       <c r="C90">
-        <v>0.3370610093611913</v>
+        <v>-0.3120754073403348</v>
       </c>
       <c r="D90">
-        <v>0.03719988018287028</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02517397496621862</v>
+      </c>
+      <c r="E90">
+        <v>-0.05574881688450256</v>
+      </c>
+      <c r="F90">
+        <v>-0.0287720708572037</v>
+      </c>
+      <c r="G90">
+        <v>-0.01597424208538815</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1901715374145021</v>
+        <v>0.1871479994277301</v>
       </c>
       <c r="C91">
-        <v>-0.1268634439517485</v>
+        <v>0.1425308185385814</v>
       </c>
       <c r="D91">
-        <v>0.1251026654651823</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1305318861812368</v>
+      </c>
+      <c r="E91">
+        <v>-0.04373652739568989</v>
+      </c>
+      <c r="F91">
+        <v>0.01882014632755542</v>
+      </c>
+      <c r="G91">
+        <v>0.003970831483639329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1581246298839935</v>
+        <v>0.1786169742328527</v>
       </c>
       <c r="C92">
-        <v>0.2844515476940482</v>
+        <v>-0.2901289554328001</v>
       </c>
       <c r="D92">
-        <v>0.03343104431644541</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02967064281088012</v>
+      </c>
+      <c r="E92">
+        <v>-0.07046493171082512</v>
+      </c>
+      <c r="F92">
+        <v>-0.067492775679179</v>
+      </c>
+      <c r="G92">
+        <v>-0.02983533630123335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1966040858537448</v>
+        <v>0.2206642424341987</v>
       </c>
       <c r="C93">
-        <v>0.3393297336421239</v>
+        <v>-0.3202101277065754</v>
       </c>
       <c r="D93">
-        <v>0.03596794836951718</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0208121598350441</v>
+      </c>
+      <c r="E93">
+        <v>-0.0431057223805627</v>
+      </c>
+      <c r="F93">
+        <v>-0.004060860283836923</v>
+      </c>
+      <c r="G93">
+        <v>-0.04101572377218551</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3389282156286558</v>
+        <v>0.3400274742501166</v>
       </c>
       <c r="C94">
-        <v>-0.1462775818094283</v>
+        <v>0.1848714323573818</v>
       </c>
       <c r="D94">
-        <v>0.3527926338465241</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4012006218473705</v>
+      </c>
+      <c r="E94">
+        <v>0.008740196230748124</v>
+      </c>
+      <c r="F94">
+        <v>0.1381722871906694</v>
+      </c>
+      <c r="G94">
+        <v>0.3970209309744431</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1169044047340033</v>
+        <v>0.08594111340484177</v>
       </c>
       <c r="C95">
-        <v>-0.06382325209346291</v>
+        <v>0.06136827888440943</v>
       </c>
       <c r="D95">
-        <v>-0.1900062547310245</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1931166004563367</v>
+      </c>
+      <c r="E95">
+        <v>0.08610246762874967</v>
+      </c>
+      <c r="F95">
+        <v>-0.711261923676646</v>
+      </c>
+      <c r="G95">
+        <v>0.5765777951068358</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1953786397482957</v>
+        <v>0.1879774783139548</v>
       </c>
       <c r="C98">
-        <v>-0.01874822674820981</v>
+        <v>0.04605153689625043</v>
       </c>
       <c r="D98">
-        <v>-0.1470770617158988</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2023014438127247</v>
+      </c>
+      <c r="E98">
+        <v>0.1277070555489166</v>
+      </c>
+      <c r="F98">
+        <v>0.07643365327606583</v>
+      </c>
+      <c r="G98">
+        <v>-0.07648982996112935</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006975740971205785</v>
+        <v>0.005408141601278916</v>
       </c>
       <c r="C101">
-        <v>-0.03413158203661138</v>
+        <v>0.02926181291980652</v>
       </c>
       <c r="D101">
-        <v>0.0180356654576178</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01357611287512639</v>
+      </c>
+      <c r="E101">
+        <v>-0.04845848666252026</v>
+      </c>
+      <c r="F101">
+        <v>-0.06710189830537641</v>
+      </c>
+      <c r="G101">
+        <v>-0.08519897279278341</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1248826275100546</v>
+        <v>0.1269831267470624</v>
       </c>
       <c r="C102">
-        <v>-0.06772191540695545</v>
+        <v>0.09955454986376493</v>
       </c>
       <c r="D102">
-        <v>0.04720763460410604</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05721280534414143</v>
+      </c>
+      <c r="E102">
+        <v>0.01434737206077672</v>
+      </c>
+      <c r="F102">
+        <v>-0.01991058266909403</v>
+      </c>
+      <c r="G102">
+        <v>0.01276552384290186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
